--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.181738666666666</v>
+        <v>1.674957333333333</v>
       </c>
       <c r="H2">
-        <v>9.545216</v>
+        <v>5.024872</v>
       </c>
       <c r="I2">
-        <v>0.01184997401866639</v>
+        <v>0.007413057527797912</v>
       </c>
       <c r="J2">
-        <v>0.01184997401866639</v>
+        <v>0.007413057527797913</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.38865533333333</v>
+        <v>10.718847</v>
       </c>
       <c r="N2">
-        <v>31.165966</v>
+        <v>32.156541</v>
       </c>
       <c r="O2">
-        <v>0.2614041676606189</v>
+        <v>0.2473266771098565</v>
       </c>
       <c r="P2">
-        <v>0.2614041676606189</v>
+        <v>0.2473266771098565</v>
       </c>
       <c r="Q2">
-        <v>33.05398636873955</v>
+        <v>17.953611387528</v>
       </c>
       <c r="R2">
-        <v>297.485877318656</v>
+        <v>161.582502487752</v>
       </c>
       <c r="S2">
-        <v>0.003097632595149447</v>
+        <v>0.001833446885574465</v>
       </c>
       <c r="T2">
-        <v>0.003097632595149447</v>
+        <v>0.001833446885574466</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.181738666666666</v>
+        <v>1.674957333333333</v>
       </c>
       <c r="H3">
-        <v>9.545216</v>
+        <v>5.024872</v>
       </c>
       <c r="I3">
-        <v>0.01184997401866639</v>
+        <v>0.007413057527797912</v>
       </c>
       <c r="J3">
-        <v>0.01184997401866639</v>
+        <v>0.007413057527797913</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.686503</v>
       </c>
       <c r="O3">
-        <v>0.2657701655321932</v>
+        <v>0.2437114581515935</v>
       </c>
       <c r="P3">
-        <v>0.2657701655321932</v>
+        <v>0.2437114581515935</v>
       </c>
       <c r="Q3">
-        <v>33.60605726884978</v>
+        <v>17.69118018917955</v>
       </c>
       <c r="R3">
-        <v>302.454515419648</v>
+        <v>159.220621702616</v>
       </c>
       <c r="S3">
-        <v>0.003149369556493154</v>
+        <v>0.001806647059461276</v>
       </c>
       <c r="T3">
-        <v>0.003149369556493156</v>
+        <v>0.001806647059461276</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.181738666666666</v>
+        <v>1.674957333333333</v>
       </c>
       <c r="H4">
-        <v>9.545216</v>
+        <v>5.024872</v>
       </c>
       <c r="I4">
-        <v>0.01184997401866639</v>
+        <v>0.007413057527797912</v>
       </c>
       <c r="J4">
-        <v>0.01184997401866639</v>
+        <v>0.007413057527797913</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.885304333333333</v>
+        <v>7.214691666666667</v>
       </c>
       <c r="N4">
-        <v>11.655913</v>
+        <v>21.644075</v>
       </c>
       <c r="O4">
-        <v>0.09776383109991159</v>
+        <v>0.1664717964804274</v>
       </c>
       <c r="P4">
-        <v>0.0977638310999116</v>
+        <v>0.1664717964804274</v>
       </c>
       <c r="Q4">
-        <v>12.36202302913422</v>
+        <v>12.08430071482222</v>
       </c>
       <c r="R4">
-        <v>111.258207262208</v>
+        <v>108.7587064334</v>
       </c>
       <c r="S4">
-        <v>0.001158498858499241</v>
+        <v>0.001234065004065274</v>
       </c>
       <c r="T4">
-        <v>0.001158498858499242</v>
+        <v>0.001234065004065274</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.181738666666666</v>
+        <v>1.674957333333333</v>
       </c>
       <c r="H5">
-        <v>9.545216</v>
+        <v>5.024872</v>
       </c>
       <c r="I5">
-        <v>0.01184997401866639</v>
+        <v>0.007413057527797912</v>
       </c>
       <c r="J5">
-        <v>0.01184997401866639</v>
+        <v>0.007413057527797913</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.90560833333333</v>
+        <v>14.84311633333333</v>
       </c>
       <c r="N5">
-        <v>44.716825</v>
+        <v>44.529349</v>
       </c>
       <c r="O5">
-        <v>0.3750618357072762</v>
+        <v>0.3424900682581226</v>
       </c>
       <c r="P5">
-        <v>0.3750618357072762</v>
+        <v>0.3424900682581225</v>
       </c>
       <c r="Q5">
-        <v>47.42575038435555</v>
+        <v>24.86158655203645</v>
       </c>
       <c r="R5">
-        <v>426.8317534592</v>
+        <v>223.754278968328</v>
       </c>
       <c r="S5">
-        <v>0.004444473008524545</v>
+        <v>0.002538898578696896</v>
       </c>
       <c r="T5">
-        <v>0.004444473008524546</v>
+        <v>0.002538898578696896</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.848171333333334</v>
+        <v>5.848171333333333</v>
       </c>
       <c r="H6">
         <v>17.544514</v>
       </c>
       <c r="I6">
-        <v>0.02178075750932496</v>
+        <v>0.02588294618833193</v>
       </c>
       <c r="J6">
-        <v>0.02178075750932496</v>
+        <v>0.02588294618833193</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.38865533333333</v>
+        <v>10.718847</v>
       </c>
       <c r="N6">
-        <v>31.165966</v>
+        <v>32.156541</v>
       </c>
       <c r="O6">
-        <v>0.2614041676606189</v>
+        <v>0.2473266771098565</v>
       </c>
       <c r="P6">
-        <v>0.2614041676606189</v>
+        <v>0.2473266771098565</v>
       </c>
       <c r="Q6">
-        <v>60.75463631228045</v>
+        <v>62.68565375178599</v>
       </c>
       <c r="R6">
-        <v>546.7917268105241</v>
+        <v>564.170883766074</v>
       </c>
       <c r="S6">
-        <v>0.005693580787742867</v>
+        <v>0.006401543074573363</v>
       </c>
       <c r="T6">
-        <v>0.005693580787742867</v>
+        <v>0.006401543074573364</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.848171333333334</v>
+        <v>5.848171333333333</v>
       </c>
       <c r="H7">
         <v>17.544514</v>
       </c>
       <c r="I7">
-        <v>0.02178075750932496</v>
+        <v>0.02588294618833193</v>
       </c>
       <c r="J7">
-        <v>0.02178075750932496</v>
+        <v>0.02588294618833193</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>31.686503</v>
       </c>
       <c r="O7">
-        <v>0.2657701655321932</v>
+        <v>0.2437114581515935</v>
       </c>
       <c r="P7">
-        <v>0.2657701655321932</v>
+        <v>0.2437114581515935</v>
       </c>
       <c r="Q7">
-        <v>61.76936616606023</v>
+        <v>61.76936616606022</v>
       </c>
       <c r="R7">
-        <v>555.9242954945421</v>
+        <v>555.924295494542</v>
       </c>
       <c r="S7">
-        <v>0.005788675528669854</v>
+        <v>0.006307970556817604</v>
       </c>
       <c r="T7">
-        <v>0.005788675528669856</v>
+        <v>0.006307970556817605</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.848171333333334</v>
+        <v>5.848171333333333</v>
       </c>
       <c r="H8">
         <v>17.544514</v>
       </c>
       <c r="I8">
-        <v>0.02178075750932496</v>
+        <v>0.02588294618833193</v>
       </c>
       <c r="J8">
-        <v>0.02178075750932496</v>
+        <v>0.02588294618833193</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.885304333333333</v>
+        <v>7.214691666666667</v>
       </c>
       <c r="N8">
-        <v>11.655913</v>
+        <v>21.644075</v>
       </c>
       <c r="O8">
-        <v>0.09776383109991159</v>
+        <v>0.1664717964804274</v>
       </c>
       <c r="P8">
-        <v>0.0977638310999116</v>
+        <v>0.1664717964804274</v>
       </c>
       <c r="Q8">
-        <v>22.72192542347578</v>
+        <v>42.19275298383889</v>
       </c>
       <c r="R8">
-        <v>204.497328811282</v>
+        <v>379.73477685455</v>
       </c>
       <c r="S8">
-        <v>0.002129370298369777</v>
+        <v>0.004308780550177847</v>
       </c>
       <c r="T8">
-        <v>0.002129370298369777</v>
+        <v>0.004308780550177848</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.848171333333334</v>
+        <v>5.848171333333333</v>
       </c>
       <c r="H9">
         <v>17.544514</v>
       </c>
       <c r="I9">
-        <v>0.02178075750932496</v>
+        <v>0.02588294618833193</v>
       </c>
       <c r="J9">
-        <v>0.02178075750932496</v>
+        <v>0.02588294618833193</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.90560833333333</v>
+        <v>14.84311633333333</v>
       </c>
       <c r="N9">
-        <v>44.716825</v>
+        <v>44.529349</v>
       </c>
       <c r="O9">
-        <v>0.3750618357072762</v>
+        <v>0.3424900682581226</v>
       </c>
       <c r="P9">
-        <v>0.3750618357072762</v>
+        <v>0.3424900682581225</v>
       </c>
       <c r="Q9">
-        <v>87.17055136089445</v>
+        <v>86.80508743793179</v>
       </c>
       <c r="R9">
-        <v>784.5349622480502</v>
+        <v>781.2457869413861</v>
       </c>
       <c r="S9">
-        <v>0.008169130894542461</v>
+        <v>0.008864652006763117</v>
       </c>
       <c r="T9">
-        <v>0.008169130894542463</v>
+        <v>0.008864652006763115</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.17634566666667</v>
+        <v>6.742607</v>
       </c>
       <c r="H10">
-        <v>57.529037</v>
+        <v>20.227821</v>
       </c>
       <c r="I10">
-        <v>0.07141981844820457</v>
+        <v>0.02984155630929478</v>
       </c>
       <c r="J10">
-        <v>0.07141981844820458</v>
+        <v>0.02984155630929478</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.38865533333333</v>
+        <v>10.718847</v>
       </c>
       <c r="N10">
-        <v>31.165966</v>
+        <v>32.156541</v>
       </c>
       <c r="O10">
-        <v>0.2614041676606189</v>
+        <v>0.2473266771098565</v>
       </c>
       <c r="P10">
-        <v>0.2614041676606189</v>
+        <v>0.2473266771098565</v>
       </c>
       <c r="Q10">
-        <v>199.2164456838602</v>
+        <v>72.27297281412899</v>
       </c>
       <c r="R10">
-        <v>1792.948011154742</v>
+        <v>650.4567553271609</v>
       </c>
       <c r="S10">
-        <v>0.01866943819592543</v>
+        <v>0.007380612961764552</v>
       </c>
       <c r="T10">
-        <v>0.01866943819592544</v>
+        <v>0.007380612961764552</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.17634566666667</v>
+        <v>6.742607</v>
       </c>
       <c r="H11">
-        <v>57.529037</v>
+        <v>20.227821</v>
       </c>
       <c r="I11">
-        <v>0.07141981844820457</v>
+        <v>0.02984155630929478</v>
       </c>
       <c r="J11">
-        <v>0.07141981844820458</v>
+        <v>0.02984155630929478</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>31.686503</v>
       </c>
       <c r="O11">
-        <v>0.2657701655321932</v>
+        <v>0.2437114581515935</v>
       </c>
       <c r="P11">
-        <v>0.2657701655321932</v>
+        <v>0.2437114581515935</v>
       </c>
       <c r="Q11">
-        <v>202.5437781652901</v>
+        <v>71.21654564444032</v>
       </c>
       <c r="R11">
-        <v>1822.894003487611</v>
+        <v>640.948910799963</v>
       </c>
       <c r="S11">
-        <v>0.01898125697125851</v>
+        <v>0.007272729201651115</v>
       </c>
       <c r="T11">
-        <v>0.01898125697125852</v>
+        <v>0.007272729201651115</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.17634566666667</v>
+        <v>6.742607</v>
       </c>
       <c r="H12">
-        <v>57.529037</v>
+        <v>20.227821</v>
       </c>
       <c r="I12">
-        <v>0.07141981844820457</v>
+        <v>0.02984155630929478</v>
       </c>
       <c r="J12">
-        <v>0.07141981844820458</v>
+        <v>0.02984155630929478</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.885304333333333</v>
+        <v>7.214691666666667</v>
       </c>
       <c r="N12">
-        <v>11.655913</v>
+        <v>21.644075</v>
       </c>
       <c r="O12">
-        <v>0.09776383109991159</v>
+        <v>0.1664717964804274</v>
       </c>
       <c r="P12">
-        <v>0.0977638310999116</v>
+        <v>0.1664717964804274</v>
       </c>
       <c r="Q12">
-        <v>74.50593891619788</v>
+        <v>48.64583053450833</v>
       </c>
       <c r="R12">
-        <v>670.5534502457809</v>
+        <v>437.812474810575</v>
       </c>
       <c r="S12">
-        <v>0.006982275067956621</v>
+        <v>0.004967777488580134</v>
       </c>
       <c r="T12">
-        <v>0.006982275067956623</v>
+        <v>0.004967777488580134</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.17634566666667</v>
+        <v>6.742607</v>
       </c>
       <c r="H13">
-        <v>57.529037</v>
+        <v>20.227821</v>
       </c>
       <c r="I13">
-        <v>0.07141981844820457</v>
+        <v>0.02984155630929478</v>
       </c>
       <c r="J13">
-        <v>0.07141981844820458</v>
+        <v>0.02984155630929478</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.90560833333333</v>
+        <v>14.84311633333333</v>
       </c>
       <c r="N13">
-        <v>44.716825</v>
+        <v>44.529349</v>
       </c>
       <c r="O13">
-        <v>0.3750618357072762</v>
+        <v>0.3424900682581226</v>
       </c>
       <c r="P13">
-        <v>0.3750618357072762</v>
+        <v>0.3424900682581225</v>
       </c>
       <c r="Q13">
-        <v>285.8350977719472</v>
+        <v>100.0813000909477</v>
       </c>
       <c r="R13">
-        <v>2572.515879947525</v>
+        <v>900.731700818529</v>
       </c>
       <c r="S13">
-        <v>0.026786848213064</v>
+        <v>0.01022043665729898</v>
       </c>
       <c r="T13">
-        <v>0.026786848213064</v>
+        <v>0.01022043665729898</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>240.2954863333333</v>
+        <v>211.6811596666666</v>
       </c>
       <c r="H14">
-        <v>720.8864590000001</v>
+        <v>635.0434789999999</v>
       </c>
       <c r="I14">
-        <v>0.894949450023804</v>
+        <v>0.9368624399745754</v>
       </c>
       <c r="J14">
-        <v>0.894949450023804</v>
+        <v>0.9368624399745754</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.38865533333333</v>
+        <v>10.718847</v>
       </c>
       <c r="N14">
-        <v>31.165966</v>
+        <v>32.156541</v>
       </c>
       <c r="O14">
-        <v>0.2614041676606189</v>
+        <v>0.2473266771098565</v>
       </c>
       <c r="P14">
-        <v>0.2614041676606189</v>
+        <v>0.2473266771098565</v>
       </c>
       <c r="Q14">
-        <v>2496.34698567271</v>
+        <v>2268.977963249571</v>
       </c>
       <c r="R14">
-        <v>22467.12287105439</v>
+        <v>20420.80166924614</v>
       </c>
       <c r="S14">
-        <v>0.2339435160818011</v>
+        <v>0.2317110741879441</v>
       </c>
       <c r="T14">
-        <v>0.2339435160818011</v>
+        <v>0.2317110741879441</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>240.2954863333333</v>
+        <v>211.6811596666666</v>
       </c>
       <c r="H15">
-        <v>720.8864590000001</v>
+        <v>635.0434789999999</v>
       </c>
       <c r="I15">
-        <v>0.894949450023804</v>
+        <v>0.9368624399745754</v>
       </c>
       <c r="J15">
-        <v>0.894949450023804</v>
+        <v>0.9368624399745754</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>31.686503</v>
       </c>
       <c r="O15">
-        <v>0.2657701655321932</v>
+        <v>0.2437114581515935</v>
       </c>
       <c r="P15">
-        <v>0.2657701655321932</v>
+        <v>0.2437114581515935</v>
       </c>
       <c r="Q15">
-        <v>2538.041216195876</v>
+        <v>2235.81190027377</v>
       </c>
       <c r="R15">
-        <v>22842.37094576288</v>
+        <v>20122.30710246393</v>
       </c>
       <c r="S15">
-        <v>0.2378508634757716</v>
+        <v>0.2283241113336635</v>
       </c>
       <c r="T15">
-        <v>0.2378508634757717</v>
+        <v>0.2283241113336635</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>240.2954863333333</v>
+        <v>211.6811596666666</v>
       </c>
       <c r="H16">
-        <v>720.8864590000001</v>
+        <v>635.0434789999999</v>
       </c>
       <c r="I16">
-        <v>0.894949450023804</v>
+        <v>0.9368624399745754</v>
       </c>
       <c r="J16">
-        <v>0.894949450023804</v>
+        <v>0.9368624399745754</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.885304333333333</v>
+        <v>7.214691666666667</v>
       </c>
       <c r="N16">
-        <v>11.655913</v>
+        <v>21.644075</v>
       </c>
       <c r="O16">
-        <v>0.09776383109991159</v>
+        <v>0.1664717964804274</v>
       </c>
       <c r="P16">
-        <v>0.0977638310999116</v>
+        <v>0.1664717964804274</v>
       </c>
       <c r="Q16">
-        <v>933.6210943313406</v>
+        <v>1527.214298637436</v>
       </c>
       <c r="R16">
-        <v>8402.589848982067</v>
+        <v>13744.92868773692</v>
       </c>
       <c r="S16">
-        <v>0.08749368687508594</v>
+        <v>0.1559611734376042</v>
       </c>
       <c r="T16">
-        <v>0.08749368687508595</v>
+        <v>0.1559611734376042</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>240.2954863333333</v>
+        <v>211.6811596666666</v>
       </c>
       <c r="H17">
-        <v>720.8864590000001</v>
+        <v>635.0434789999999</v>
       </c>
       <c r="I17">
-        <v>0.894949450023804</v>
+        <v>0.9368624399745754</v>
       </c>
       <c r="J17">
-        <v>0.894949450023804</v>
+        <v>0.9368624399745754</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.90560833333333</v>
+        <v>14.84311633333333</v>
       </c>
       <c r="N17">
-        <v>44.716825</v>
+        <v>44.529349</v>
       </c>
       <c r="O17">
-        <v>0.3750618357072762</v>
+        <v>0.3424900682581226</v>
       </c>
       <c r="P17">
-        <v>0.3750618357072762</v>
+        <v>0.3424900682581225</v>
       </c>
       <c r="Q17">
-        <v>3581.750403552519</v>
+        <v>3142.008078507241</v>
       </c>
       <c r="R17">
-        <v>32235.75363197268</v>
+        <v>28278.07270656517</v>
       </c>
       <c r="S17">
-        <v>0.3356613835911452</v>
+        <v>0.3208660810153636</v>
       </c>
       <c r="T17">
-        <v>0.3356613835911452</v>
+        <v>0.3208660810153635</v>
       </c>
     </row>
   </sheetData>
